--- a/bdd_excel/Extensions.xlsx
+++ b/bdd_excel/Extensions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/Projet/bdd_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359E6AD5-8566-CD42-9536-8AA647CBE157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20712E4D-688E-F44C-B258-7042A47CFC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15980" xr2:uid="{44BA8471-2D4D-5A41-A407-5A2800E25FA4}"/>
+    <workbookView xWindow="780" yWindow="2000" windowWidth="27640" windowHeight="16000" xr2:uid="{CFC07559-B218-0C46-B8E0-827FB3472664}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,49 +35,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Cities</t>
-  </si>
-  <si>
-    <t>Leaders</t>
-  </si>
-  <si>
-    <t>Pantheon</t>
-  </si>
-  <si>
-    <t>The crew</t>
-  </si>
-  <si>
-    <t>Chibis</t>
-  </si>
-  <si>
-    <t>Memories</t>
-  </si>
-  <si>
-    <t>Universe</t>
-  </si>
-  <si>
-    <t>Mirrors</t>
-  </si>
-  <si>
-    <t>Harmonies</t>
-  </si>
-  <si>
-    <t>Quest</t>
-  </si>
-  <si>
-    <t>Corruption et Ascension</t>
-  </si>
-  <si>
-    <t>Corneille Rouge</t>
-  </si>
-  <si>
-    <t>Leviathan</t>
-  </si>
-  <si>
     <t>nom_extension</t>
   </si>
   <si>
     <t>id_jeu</t>
+  </si>
+  <si>
+    <t>'Cities'</t>
+  </si>
+  <si>
+    <t>'Leaders'</t>
+  </si>
+  <si>
+    <t>'Pantheon'</t>
+  </si>
+  <si>
+    <t>'The crew'</t>
+  </si>
+  <si>
+    <t>'Chibis'</t>
+  </si>
+  <si>
+    <t>'Memories'</t>
+  </si>
+  <si>
+    <t>'Universe'</t>
+  </si>
+  <si>
+    <t>'Mirrors'</t>
+  </si>
+  <si>
+    <t>'Harmonies'</t>
+  </si>
+  <si>
+    <t>'Quest'</t>
+  </si>
+  <si>
+    <t>'Corruption et Ascension'</t>
+  </si>
+  <si>
+    <t>'Corneille Rouge'</t>
+  </si>
+  <si>
+    <t>'Leviathan'</t>
   </si>
 </sst>
 </file>
@@ -428,177 +428,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7A3B7-4875-1145-9C34-037C9F2F8F1A}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DFDECF-5802-534A-8214-3F798C3AE601}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f xml:space="preserve"> CHAR(39) &amp; C2 &amp; CHAR(39)</f>
-        <v>'Cities'</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A14" si="0" xml:space="preserve"> CHAR(39) &amp; C3 &amp; CHAR(39)</f>
-        <v>'Leaders'</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>'Pantheon'</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>'The crew'</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>'Chibis'</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>'Memories'</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>'Universe'</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mirrors'</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>'Harmonies'</v>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>'Quest'</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>'Corruption et Ascension'</v>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>'Corneille Rouge'</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>'Leviathan'</v>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
